--- a/_test_/data/MOVIMIENTOS-TESTER.xlsx
+++ b/_test_/data/MOVIMIENTOS-TESTER.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos de ensa\bancos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos de ensa\bancos\_test_\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22104" windowHeight="9972"/>
+    <workbookView xWindow="1944" yWindow="0" windowWidth="22068" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,22 +26,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>26/07/2023</t>
-  </si>
-  <si>
-    <t>DE EMP.REG.DE SERV.PUB</t>
+    <t>27/07/2023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>VARIOS KALLPA GENERACI</t>
   </si>
   <si>
     <t>111-008</t>
   </si>
   <si>
-    <t>03021592</t>
-  </si>
-  <si>
-    <t>11:41:59</t>
-  </si>
-  <si>
-    <t>TNP0P0</t>
+    <t>09789286</t>
+  </si>
+  <si>
+    <t>13:32:02</t>
+  </si>
+  <si>
+    <t>TNP101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2401  </t>
+  </si>
+  <si>
+    <t>0000010041</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -77,38 +86,29 @@
     <t>Referencia2</t>
   </si>
   <si>
-    <t>Referencia</t>
-  </si>
-  <si>
-    <t>Procendecias</t>
-  </si>
-  <si>
-    <t>04/07/2023</t>
-  </si>
-  <si>
-    <t>BCO.NACI0000</t>
-  </si>
-  <si>
-    <t>191-000</t>
-  </si>
-  <si>
-    <t>08555500</t>
-  </si>
-  <si>
-    <t>16:39:14</t>
-  </si>
-  <si>
-    <t>RCJN</t>
-  </si>
-  <si>
-    <t>CONTRALORIA GRAL DE LA REPUBLICA 03</t>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>305-0037523-0-27 - EMP.REG.DE SERV.PUB.DE ELECT.DEL NORTE</t>
+  </si>
+  <si>
+    <t>Moneda</t>
+  </si>
+  <si>
+    <t>Soles</t>
+  </si>
+  <si>
+    <t>Tipo de Cuenta</t>
+  </si>
+  <si>
+    <t>Corriente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,20 +117,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F4FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003E9F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDFAF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,16 +167,31 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -157,10 +199,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,114 +496,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="38.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>234421.78</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2672535.7200000002</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>314000</v>
-      </c>
-      <c r="E2">
-        <v>5831704.5599999996</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>5723.2</v>
-      </c>
-      <c r="E3">
-        <v>4426163.58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>2014</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
